--- a/plantilla_Propuesta.xlsx
+++ b/plantilla_Propuesta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProyectoWeb_PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DAA7B9A-88D8-4284-A0DB-80E278639DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2825C4C5-D76A-4C29-8614-56F21B456020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" xr2:uid="{AD8112F9-D4AC-46B5-944A-E2F9B45B3395}"/>
+    <workbookView xWindow="3555" yWindow="3975" windowWidth="28800" windowHeight="15345" xr2:uid="{AD8112F9-D4AC-46B5-944A-E2F9B45B3395}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>C1</t>
   </si>
@@ -210,48 +210,6 @@
   </si>
   <si>
     <t>IGV</t>
-  </si>
-  <si>
-    <t>msgOriginal##</t>
-  </si>
-  <si>
-    <t>2045600386001F0010000015908</t>
-  </si>
-  <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>HOSTEM SAC</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>2045600386001F0010000015909</t>
-  </si>
-  <si>
-    <t>2051146506101F2040002315844</t>
-  </si>
-  <si>
-    <t>F204</t>
-  </si>
-  <si>
-    <t>CONCESIONARIA VIAL DEL PERU SA</t>
-  </si>
-  <si>
-    <t>PEN</t>
-  </si>
-  <si>
-    <t>2051146506101F2050002214831</t>
-  </si>
-  <si>
-    <t>F205</t>
-  </si>
-  <si>
-    <t>2051146506101F2030001062818</t>
-  </si>
-  <si>
-    <t>F203</t>
   </si>
 </sst>
 </file>
@@ -741,8 +699,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1127,908 +1084,210 @@
   <dimension ref="A1:BG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BG6"/>
+      <selection activeCell="A2" sqref="A2:BM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>107</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20503724058</v>
-      </c>
-      <c r="E2" s="1">
-        <v>80400</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15908</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45231</v>
-      </c>
-      <c r="K2" s="2">
-        <v>45231</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <v>6</v>
-      </c>
-      <c r="N2" s="1">
-        <v>20456003860</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1">
-        <v>202401</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>3.851</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>3.851</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>250.32</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>45.06</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>25.03</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>320.39999999999998</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>250</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0.18</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>330330</v>
-      </c>
-      <c r="B3" s="1">
-        <v>107</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20503724058</v>
-      </c>
-      <c r="E3" s="1">
-        <v>80400</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1">
-        <v>15909</v>
-      </c>
-      <c r="J3" s="2">
-        <v>45231</v>
-      </c>
-      <c r="K3" s="2">
-        <v>45231</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1">
-        <v>20456003860</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <v>202401</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>3.851</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>3.851</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>250.32</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>45.06</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>25.03</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>320.39999999999998</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>251</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>0.18</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>107</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20503724058</v>
-      </c>
-      <c r="E4" s="1">
-        <v>80400</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2315844</v>
-      </c>
-      <c r="J4" s="2">
-        <v>45231</v>
-      </c>
-      <c r="K4" s="2">
-        <v>45231</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>20511465061</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1">
-        <v>202401</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>15.59</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>2.81</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>252</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0.18</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>107</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20503724058</v>
-      </c>
-      <c r="E5" s="1">
-        <v>80400</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2214831</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45231</v>
-      </c>
-      <c r="K5" s="2">
-        <v>45231</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1">
-        <v>20511465061</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1">
-        <v>202401</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>15.59</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>2.81</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>253</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0.18</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>107</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20503724058</v>
-      </c>
-      <c r="E6" s="1">
-        <v>80400</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1062818</v>
-      </c>
-      <c r="J6" s="2">
-        <v>45231</v>
-      </c>
-      <c r="K6" s="2">
-        <v>45231</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
-        <v>6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>20511465061</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1">
-        <v>202401</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>15.59</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>2.81</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>254</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0.18</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
